--- a/Reports/100/20/1/日本語.xlsx
+++ b/Reports/100/20/1/日本語.xlsx
@@ -102,13 +102,13 @@
     <t>10/19/21 02:53:33</t>
   </si>
   <si>
-    <t>42710558535d8b9e2bd6a99208d7fada69bda6ff</t>
+    <t>fe3e1a3a805e8c9931d4d4fbe9c318b8458f0b7e</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/hung-logigear/TestManagementSolution into main
+    <t xml:space="preserve">500
 </t>
   </si>
   <si>
